--- a/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/s8_csv/all_defender_skills s8.xlsx
+++ b/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/s8_csv/all_defender_skills s8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIIT\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/1_DATA/DATA__Tableau-Data/Defender_Skills/s8_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6B950B-4253-4D52-9193-705F8E172E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC82F5-FC46-8241-9627-E049FAD20EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12649" xr2:uid="{CCD10CD2-8F7A-4594-A66F-37FE03CE73D8}"/>
+    <workbookView xWindow="20" yWindow="900" windowWidth="41080" windowHeight="24940" xr2:uid="{CCD10CD2-8F7A-4594-A66F-37FE03CE73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,18 +542,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C8813-0A1C-4609-90CC-CBA6052D7349}">
-  <dimension ref="A1:AT38"/>
+  <dimension ref="A1:AT39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -739,7 +739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -813,7 +813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -887,7 +887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -961,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1843,732 +1843,733 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>27</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>28</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>27</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N23" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q23" t="s">
         <v>27</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R23" t="s">
         <v>28</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U23" t="s">
         <v>27</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V23" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y23" t="s">
         <v>27</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z23" t="s">
         <v>28</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC23" t="s">
         <v>27</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD23" t="s">
         <v>28</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG23" t="s">
         <v>40</v>
       </c>
-      <c r="AH22">
+      <c r="AH23">
         <v>0</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AK23" t="s">
         <v>40</v>
       </c>
-      <c r="AL22">
+      <c r="AL23">
         <v>1</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AO23" t="s">
         <v>27</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AP23" t="s">
         <v>28</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AS23" t="s">
         <v>27</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AT23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>63</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>29</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>51</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" t="s">
         <v>29</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>41</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q24" t="s">
         <v>29</v>
-      </c>
-      <c r="R23">
-        <v>43</v>
-      </c>
-      <c r="U23" t="s">
-        <v>30</v>
-      </c>
-      <c r="V23">
-        <v>50</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23">
-        <v>58</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD23">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP23">
-        <v>66</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>57</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24">
-        <v>38</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>32</v>
       </c>
       <c r="R24">
         <v>43</v>
       </c>
       <c r="U24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24">
+        <v>50</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z24">
+        <v>58</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD24">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP24">
+        <v>66</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
         <v>34</v>
       </c>
-      <c r="V24">
-        <v>36</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24">
-        <v>56</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD24">
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>38</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25">
         <v>43</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="U25" t="s">
         <v>34</v>
-      </c>
-      <c r="AH24">
-        <v>43</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL24">
-        <v>45</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP24">
-        <v>36</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT24">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25">
-        <v>28</v>
-      </c>
-      <c r="M25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25">
-        <v>37</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25">
-        <v>42</v>
-      </c>
-      <c r="U25" t="s">
-        <v>32</v>
       </c>
       <c r="V25">
         <v>36</v>
       </c>
       <c r="Y25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25">
+        <v>56</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25">
+        <v>43</v>
+      </c>
+      <c r="AG25" t="s">
         <v>34</v>
       </c>
-      <c r="Z25">
+      <c r="AH25">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL25">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP25">
+        <v>36</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26">
+        <v>42</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z26">
         <v>48</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC26" t="s">
         <v>34</v>
       </c>
-      <c r="AD25">
+      <c r="AD26">
         <v>36</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG26" t="s">
         <v>29</v>
       </c>
-      <c r="AH25">
+      <c r="AH26">
         <v>38</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AK26" t="s">
         <v>29</v>
       </c>
-      <c r="AL25">
+      <c r="AL26">
         <v>42</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AO26" t="s">
         <v>30</v>
       </c>
-      <c r="AP25">
+      <c r="AP26">
         <v>30</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AS26" t="s">
         <v>30</v>
       </c>
-      <c r="AT25">
+      <c r="AT26">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>32</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>27</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M27" t="s">
         <v>32</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>29</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q27" t="s">
         <v>31</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>33</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U27" t="s">
         <v>29</v>
       </c>
-      <c r="V26">
+      <c r="V27">
         <v>30</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y27" t="s">
         <v>30</v>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <v>47</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC27" t="s">
         <v>29</v>
       </c>
-      <c r="AD26">
+      <c r="AD27">
         <v>29</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AG27" t="s">
         <v>32</v>
       </c>
-      <c r="AH26">
+      <c r="AH27">
         <v>31</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AK27" t="s">
         <v>30</v>
       </c>
-      <c r="AL26">
+      <c r="AL27">
         <v>29</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AO27" t="s">
         <v>34</v>
       </c>
-      <c r="AP26">
+      <c r="AP27">
         <v>27</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AS27" t="s">
         <v>34</v>
       </c>
-      <c r="AT26">
+      <c r="AT27">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>33</v>
-      </c>
-      <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="M27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27">
-        <v>17</v>
-      </c>
-      <c r="U27" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27">
-        <v>19</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z27">
-        <v>29</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD27">
-        <v>25</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH27">
-        <v>28</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL27">
-        <v>24</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP27">
-        <v>16</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>34</v>
       </c>
       <c r="B28">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R28">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V28">
         <v>19</v>
       </c>
       <c r="Y28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD28">
+        <v>25</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH28">
+        <v>28</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL28">
+        <v>24</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP28">
+        <v>16</v>
+      </c>
+      <c r="AS28" t="s">
         <v>35</v>
       </c>
-      <c r="Z28">
+      <c r="AT28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>15</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29">
+        <v>12</v>
+      </c>
+      <c r="U29" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29">
         <v>25</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AC29" t="s">
         <v>35</v>
       </c>
-      <c r="AD28">
+      <c r="AD29">
         <v>15</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG29" t="s">
         <v>33</v>
       </c>
-      <c r="AH28">
+      <c r="AH29">
         <v>25</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AK29" t="s">
         <v>31</v>
       </c>
-      <c r="AL28">
+      <c r="AL29">
         <v>23</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AO29" t="s">
         <v>35</v>
       </c>
-      <c r="AP28">
-        <v>10</v>
-      </c>
-      <c r="AS28" t="s">
+      <c r="AP29">
+        <v>10</v>
+      </c>
+      <c r="AS29" t="s">
         <v>31</v>
       </c>
-      <c r="AT28">
+      <c r="AT29">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>35</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>9</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>36</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>35</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>14</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q30" t="s">
         <v>33</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <v>9</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U30" t="s">
         <v>35</v>
       </c>
-      <c r="V29">
+      <c r="V30">
         <v>9</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y30" t="s">
         <v>33</v>
       </c>
-      <c r="Z29">
+      <c r="Z30">
         <v>9</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AC30" t="s">
         <v>33</v>
       </c>
-      <c r="AD29">
+      <c r="AD30">
         <v>7</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG30" t="s">
         <v>30</v>
       </c>
-      <c r="AH29">
+      <c r="AH30">
         <v>24</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AK30" t="s">
         <v>33</v>
       </c>
-      <c r="AL29">
+      <c r="AL30">
         <v>20</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AO30" t="s">
         <v>33</v>
       </c>
-      <c r="AP29">
-        <v>10</v>
-      </c>
-      <c r="AS29" t="s">
+      <c r="AP30">
+        <v>10</v>
+      </c>
+      <c r="AS30" t="s">
         <v>33</v>
       </c>
-      <c r="AT29">
+      <c r="AT30">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>35</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" t="s">
         <v>33</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>8</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q31" t="s">
         <v>36</v>
       </c>
-      <c r="R30">
+      <c r="R31">
         <v>3</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>36</v>
       </c>
-      <c r="V30">
+      <c r="V31">
         <v>2</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y31" t="s">
         <v>36</v>
       </c>
-      <c r="Z30">
+      <c r="Z31">
         <v>4</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC31" t="s">
         <v>36</v>
       </c>
-      <c r="AD30">
+      <c r="AD31">
         <v>5</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AG31" t="s">
         <v>35</v>
       </c>
-      <c r="AH30">
+      <c r="AH31">
         <v>22</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AK31" t="s">
         <v>35</v>
       </c>
-      <c r="AL30">
+      <c r="AL31">
         <v>5</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AO31" t="s">
         <v>36</v>
       </c>
-      <c r="AP30">
+      <c r="AP31">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>37</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U32" t="s">
         <v>37</v>
       </c>
-      <c r="V31">
+      <c r="V32">
         <v>0</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG32" t="s">
         <v>36</v>
       </c>
-      <c r="AH31">
+      <c r="AH32">
         <v>3</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AK32" t="s">
         <v>36</v>
       </c>
-      <c r="AL31">
+      <c r="AL32">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="AG32" t="s">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="AG33" t="s">
         <v>37</v>
       </c>
-      <c r="AH32">
+      <c r="AH33">
         <v>0</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AK33" t="s">
         <v>37</v>
       </c>
-      <c r="AL32">
+      <c r="AL33">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>